--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DT vs PBS" sheetId="1" r:id="rId1"/>
     <sheet name="Treg vs PBS" sheetId="2" r:id="rId2"/>
-    <sheet name="DT vs Treg" sheetId="3" r:id="rId3"/>
+    <sheet name="Treg vs DT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,53 +404,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antigen processing-cross presentation</t>
+          <t>ER-Phagosome pathway</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.108695652173913</v>
+        <v>0.375</v>
       </c>
       <c r="C2">
-        <v>0.0001209624798711654</v>
+        <v>6.978348335810369e-06</v>
       </c>
       <c r="D2">
-        <v>0.05959355737570413</v>
+        <v>0.003949745158068669</v>
       </c>
       <c r="E2">
-        <v>1.22480068904198</v>
+        <v>2.403430924630487</v>
       </c>
       <c r="F2">
-        <v>0.05527487494949593</v>
+        <v>0.003812381880300612</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>H2-Q4/Tap1/B2m/H2-K1/Tap2/Psmb8/Psmb9/H2-T23/Psme1/Psme2</t>
+          <t>H2-Q4/Tap1/B2m/H2-K1/Tap2/H2-T23</t>
         </is>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Er-phagosome pathway</t>
+          <t>Antigen Presentation: Folding, assembly and
+peptide loading of class I MHC</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.1764705882352941</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C3">
-        <v>0.0002023550335338001</v>
+        <v>7.255605121471552e-05</v>
       </c>
       <c r="D3">
-        <v>0.05959355737570413</v>
+        <v>0.0173871859623237</v>
       </c>
       <c r="E3">
-        <v>1.22480068904198</v>
+        <v>1.759770700914294</v>
       </c>
       <c r="F3">
-        <v>0.05527487494949593</v>
+        <v>0.01678249863203645</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -464,123 +465,332 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Extracellular matrix organization</t>
+          <t>Antigen processing-Cross presentation</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.06926406926406926</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C4">
-        <v>0.0003039431774524166</v>
+        <v>9.215822948228111e-05</v>
       </c>
       <c r="D4">
-        <v>0.0596741771731578</v>
+        <v>0.0173871859623237</v>
       </c>
       <c r="E4">
-        <v>1.224213560618163</v>
+        <v>1.759770700914294</v>
       </c>
       <c r="F4">
-        <v>0.05534965231501902</v>
+        <v>0.01678249863203645</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lox/Tgfb2/Col24a1/Col4a6/Col4a5/Loxl3/Ctsg/Adam8/Col7a1/Ctsk/Icam1/Cdh1/Mmp15/Mfap4/Colgalt2/Mmp14</t>
+          <t>H2-Q4/Tap1/B2m/H2-K1/Tap2/Psmb8/Psmb9/H2-T23/Psme1/Psme2</t>
         </is>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Crosslinking of collagen fibrils</t>
+          <t>Extracellular matrix organization</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.2666666666666667</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="C5">
-        <v>0.0004705088727281521</v>
+        <v>0.0002056173768553887</v>
       </c>
       <c r="D5">
-        <v>0.06856077955074105</v>
+        <v>0.0290948588250375</v>
       </c>
       <c r="E5">
-        <v>1.163924253035551</v>
+        <v>1.536183745762406</v>
       </c>
       <c r="F5">
-        <v>0.06359225196467627</v>
+        <v>0.02808300489156493</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lox/Col4a6/Col4a5/Loxl3</t>
+          <t>Lox/Tgfb2/Col24a1/Col4a6/Col4a5/Loxl3/Ctsg/Adam8/Col7a1/Ctsk/Icam1/Cdh1/Mmp15/Mfap4/Colgalt2/Mmp14</t>
         </is>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antigen presentation: folding, assembly and
-peptide loading of class i mhc</t>
+          <t>Regulation of Complement cascade</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.1463414634146341</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C6">
-        <v>0.0005820100131641856</v>
+        <v>0.0002863437557827796</v>
       </c>
       <c r="D6">
-        <v>0.06856077955074105</v>
+        <v>0.03241411315461065</v>
       </c>
       <c r="E6">
-        <v>1.163924253035551</v>
+        <v>1.489265856131961</v>
       </c>
       <c r="F6">
-        <v>0.06359225196467627</v>
+        <v>0.03128682300026581</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>H2-Q4/Tap1/B2m/H2-K1/Tap2/H2-T23</t>
+          <t>C2/Serping1/Clu/Cd55/C1ra</t>
         </is>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Degradation of the extracellular matrix</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <v>0.0005172920005859624</v>
+      </c>
+      <c r="D7">
+        <v>0.04471565938592367</v>
+      </c>
+      <c r="E7">
+        <v>1.349540360672469</v>
+      </c>
+      <c r="F7">
+        <v>0.04316054904462411</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Col4a6/Col4a5/Ctsg/Adam8/Col7a1/Ctsk/Cdh1/Mmp15/Mmp14</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Complement cascade</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="C8">
+        <v>0.000598478919737336</v>
+      </c>
+      <c r="D8">
+        <v>0.04471565938592367</v>
+      </c>
+      <c r="E8">
+        <v>1.349540360672469</v>
+      </c>
+      <c r="F8">
+        <v>0.04316054904462411</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C2/Serping1/Clu/Cd55/C1ra</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Activation of Matrix Metalloproteinases</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C9">
+        <v>0.0006320234542180024</v>
+      </c>
+      <c r="D9">
+        <v>0.04471565938592367</v>
+      </c>
+      <c r="E9">
+        <v>1.349540360672469</v>
+      </c>
+      <c r="F9">
+        <v>0.04316054904462411</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ctsg/Ctsk/Mmp15/Mmp14</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Collagen degradation</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="C10">
+        <v>0.0008399733043904614</v>
+      </c>
+      <c r="D10">
+        <v>0.04880516367839725</v>
+      </c>
+      <c r="E10">
+        <v>1.3115342263908</v>
+      </c>
+      <c r="F10">
+        <v>0.04710782955009889</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Col4a6/Col4a5/Col7a1/Ctsk/Mmp15/Mmp14</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Crosslinking of collagen fibrils</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C11">
+        <v>0.0008622820437879372</v>
+      </c>
+      <c r="D11">
+        <v>0.04880516367839725</v>
+      </c>
+      <c r="E11">
+        <v>1.3115342263908</v>
+      </c>
+      <c r="F11">
+        <v>0.04710782955009889</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lox/Col4a6/Col4a5/Loxl3</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Formation of the cornified envelope</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.001114550969404053</v>
+      </c>
+      <c r="D12">
+        <v>0.05734871351660852</v>
+      </c>
+      <c r="E12">
+        <v>1.241476320027834</v>
+      </c>
+      <c r="F12">
+        <v>0.05535425388714865</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Krt18/Krt7/Krt19/Krt8/Ppl</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Assembly of collagen fibrils and other
 multimeric structures</t>
         </is>
       </c>
-      <c r="B7">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C7">
-        <v>0.0009676206434975451</v>
-      </c>
-      <c r="D7">
-        <v>0.09498809317000902</v>
-      </c>
-      <c r="E7">
-        <v>1.022330830444282</v>
-      </c>
-      <c r="F7">
-        <v>0.08810440596056594</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="B13">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="C13">
+        <v>0.001316440729542291</v>
+      </c>
+      <c r="D13">
+        <v>0.05849977788358084</v>
+      </c>
+      <c r="E13">
+        <v>1.232845782877107</v>
+      </c>
+      <c r="F13">
+        <v>0.05646528681714424</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lox/Col24a1/Col4a6/Col4a5/Loxl3/Col7a1</t>
         </is>
       </c>
-      <c r="H7">
+      <c r="H13">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Keratinization</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="C14">
+        <v>0.001343634474357864</v>
+      </c>
+      <c r="D14">
+        <v>0.05849977788358084</v>
+      </c>
+      <c r="E14">
+        <v>1.232845782877107</v>
+      </c>
+      <c r="F14">
+        <v>0.05646528681714424</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Krt18/Krt7/Krt19/Krt8/Ppl</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -638,6 +848,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Formation of the cornified envelope</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>1.48086252670014e-07</v>
+      </c>
+      <c r="D2">
+        <v>7.452368990098978e-05</v>
+      </c>
+      <c r="E2">
+        <v>4.127705649965201</v>
+      </c>
+      <c r="F2">
+        <v>7.360364434665656e-05</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Krt18/Krt7/Krt8/Krt19/Ppl/Pkp4/Krt17/Krt80/Perp/Krt84</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Keratinization</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C3">
+        <v>2.300113885833018e-07</v>
+      </c>
+      <c r="D3">
+        <v>7.452368990098978e-05</v>
+      </c>
+      <c r="E3">
+        <v>4.127705649965201</v>
+      </c>
+      <c r="F3">
+        <v>7.360364434665656e-05</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Krt18/Krt7/Krt8/Krt19/Ppl/Pkp4/Krt17/Krt80/Perp/Krt84</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -645,7 +915,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,23 +966,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Endosomal/vacuolar pathway</t>
+          <t>ER-Phagosome pathway</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.0004672514694476736</v>
+        <v>0.0002377646120269408</v>
       </c>
       <c r="D2">
-        <v>0.09885762640713759</v>
+        <v>0.05421033154214251</v>
       </c>
       <c r="E2">
-        <v>1.004989821253936</v>
+        <v>1.265917936632287</v>
       </c>
       <c r="F2">
-        <v>0.09334196484794106</v>
+        <v>0.05155737902899981</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -726,23 +996,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Er-phagosome pathway</t>
+          <t>Antigen Presentation: Folding, assembly and
+peptide loading of class I MHC</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.08823529411764706</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C3">
-        <v>0.001168829944862692</v>
+        <v>0.0007232931289976999</v>
       </c>
       <c r="D3">
-        <v>0.09885762640713759</v>
+        <v>0.05952871037313991</v>
       </c>
       <c r="E3">
-        <v>1.004989821253936</v>
+        <v>1.225273525879218</v>
       </c>
       <c r="F3">
-        <v>0.09334196484794106</v>
+        <v>0.05661548631979143</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -756,32 +1027,182 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Regulation of apc/c activators between g1/s
-and early anaphase</t>
+          <t>Formation of the cornified envelope</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.08571428571428572</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>0.001272844975199196</v>
+        <v>0.0009289905432088322</v>
       </c>
       <c r="D4">
-        <v>0.09885762640713759</v>
+        <v>0.05952871037313991</v>
       </c>
       <c r="E4">
-        <v>1.004989821253936</v>
+        <v>1.225273525879218</v>
       </c>
       <c r="F4">
-        <v>0.09334196484794106</v>
+        <v>0.05661548631979143</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cdc23/Plk1/Bub1b</t>
+          <t>Krt84/Krt18/Dsc2</t>
         </is>
       </c>
       <c r="H4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Keratinization</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C5">
+        <v>0.001044363339879648</v>
+      </c>
+      <c r="D5">
+        <v>0.05952871037313991</v>
+      </c>
+      <c r="E5">
+        <v>1.225273525879218</v>
+      </c>
+      <c r="F5">
+        <v>0.05661548631979143</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Krt84/Krt18/Dsc2</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Regulation of APC/C activators between G1/S
+and early anaphase</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="C6">
+        <v>0.002108310926572394</v>
+      </c>
+      <c r="D6">
+        <v>0.08147184701678116</v>
+      </c>
+      <c r="E6">
+        <v>1.088992437855266</v>
+      </c>
+      <c r="F6">
+        <v>0.07748476678419632</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cdc23/Plk1/Bub1b</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Degradation of the extracellular matrix</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C7">
+        <v>0.002344407309393136</v>
+      </c>
+      <c r="D7">
+        <v>0.08147184701678116</v>
+      </c>
+      <c r="E7">
+        <v>1.088992437855266</v>
+      </c>
+      <c r="F7">
+        <v>0.07748476678419632</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Eln/Spp1/Adam8/Adamts4</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DAP12 interactions</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="C8">
+        <v>0.002501328636480124</v>
+      </c>
+      <c r="D8">
+        <v>0.08147184701678116</v>
+      </c>
+      <c r="E8">
+        <v>1.088992437855266</v>
+      </c>
+      <c r="F8">
+        <v>0.07748476678419632</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>H2-K1/B2m/H2-T23</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Condensation of Prophase Chromosomes</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="C9">
+        <v>0.003176096242692789</v>
+      </c>
+      <c r="D9">
+        <v>0.0905187429167445</v>
+      </c>
+      <c r="E9">
+        <v>1.043261485960261</v>
+      </c>
+      <c r="F9">
+        <v>0.08608892447298878</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ncapd3/Plk1</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="DT vs PBS" sheetId="1" r:id="rId1"/>
-    <sheet name="Treg vs PBS" sheetId="2" r:id="rId2"/>
-    <sheet name="Treg vs DT" sheetId="3" r:id="rId3"/>
+    <sheet name="DT vs veh" sheetId="1" r:id="rId1"/>
+    <sheet name="DT+Treg vs veh" sheetId="2" r:id="rId2"/>
+    <sheet name="DT+Treg vs DT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/3_output/reactome_sig.xlsx
+++ b/3_output/reactome_sig.xlsx
@@ -411,7 +411,7 @@
         <v>0.375</v>
       </c>
       <c r="C2">
-        <v>6.978348335810369e-06</v>
+        <v>6.978348335810369E-06</v>
       </c>
       <c r="D2">
         <v>0.003949745158068669</v>
@@ -442,7 +442,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="C3">
-        <v>7.255605121471552e-05</v>
+        <v>7.255605121471552E-05</v>
       </c>
       <c r="D3">
         <v>0.0173871859623237</v>
@@ -472,7 +472,7 @@
         <v>0.1408450704225352</v>
       </c>
       <c r="C4">
-        <v>9.215822948228111e-05</v>
+        <v>9.215822948228111E-05</v>
       </c>
       <c r="D4">
         <v>0.0173871859623237</v>
@@ -858,16 +858,16 @@
         <v>0.4</v>
       </c>
       <c r="C2">
-        <v>1.48086252670014e-07</v>
+        <v>1.48086252670014E-07</v>
       </c>
       <c r="D2">
-        <v>7.452368990098978e-05</v>
+        <v>7.452368990098978E-05</v>
       </c>
       <c r="E2">
         <v>4.127705649965201</v>
       </c>
       <c r="F2">
-        <v>7.360364434665656e-05</v>
+        <v>7.360364434665656E-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -888,16 +888,16 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C3">
-        <v>2.300113885833018e-07</v>
+        <v>2.300113885833018E-07</v>
       </c>
       <c r="D3">
-        <v>7.452368990098978e-05</v>
+        <v>7.452368990098978E-05</v>
       </c>
       <c r="E3">
         <v>4.127705649965201</v>
       </c>
       <c r="F3">
-        <v>7.360364434665656e-05</v>
+        <v>7.360364434665656E-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
